--- a/PuuEke_AllData.xlsx
+++ b/PuuEke_AllData.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emily/GitHub/pu-u-eke-14c/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emily/Box Sync/Stanford (elacroix@stanford.edu)/Research/AnoxicMicrositesHawaii/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F68C02B-E31A-9644-A235-74B99B2E3432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845F0C25-902C-434D-8133-A0235B5A5DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{C8CB3AD8-63AF-2E43-9BDC-473FC067992C}"/>
+    <workbookView xWindow="-36100" yWindow="-1620" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{C8CB3AD8-63AF-2E43-9BDC-473FC067992C}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
-    <sheet name="PutativeAnaerobes" sheetId="3" r:id="rId3"/>
+    <sheet name="qPCR" sheetId="4" r:id="rId3"/>
+    <sheet name="PutativeAnaerobes" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="186">
   <si>
     <t>collection_yr</t>
   </si>
@@ -568,6 +569,33 @@
   </si>
   <si>
     <t>5-7</t>
+  </si>
+  <si>
+    <t>sample_id</t>
+  </si>
+  <si>
+    <t>rep</t>
+  </si>
+  <si>
+    <t>copies_per_rxn</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>g_sed_ul_extract</t>
+  </si>
+  <si>
+    <t>copies_per_ul</t>
+  </si>
+  <si>
+    <t>copies_per_g_soil</t>
+  </si>
+  <si>
+    <t>log_copies_per_g_soil</t>
+  </si>
+  <si>
+    <t>avg_dist_mm</t>
   </si>
 </sst>
 </file>
@@ -659,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -677,6 +705,9 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2131,8 +2162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A3A6A5-0F3D-E344-9BF0-A8770711079D}">
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2140,7 +2171,7 @@
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
@@ -2171,7 +2202,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -3961,10 +3992,10 @@
         <v>1.78716094744072</v>
       </c>
       <c r="K27">
-        <v>14898039.313739499</v>
+        <v>14898039313739.5</v>
       </c>
       <c r="L27">
-        <v>24953.723634466201</v>
+        <v>24953723634.466202</v>
       </c>
       <c r="M27">
         <v>7.6599012073089598E-2</v>
@@ -4029,10 +4060,10 @@
         <v>1.8608463489564899</v>
       </c>
       <c r="K28">
-        <v>11142130.430462399</v>
+        <v>11142130430462.4</v>
       </c>
       <c r="L28">
-        <v>13645.0146699341</v>
+        <v>13645014669.934099</v>
       </c>
       <c r="M28">
         <v>6.9371399158532299E-2</v>
@@ -4097,10 +4128,10 @@
         <v>1.8818235198261899</v>
       </c>
       <c r="K29">
-        <v>12359751.2511342</v>
+        <v>12359751251134.199</v>
       </c>
       <c r="L29">
-        <v>14893.3337293186</v>
+        <v>14893333729.3186</v>
       </c>
       <c r="M29">
         <v>6.3953319211497203E-2</v>
@@ -4165,10 +4196,10 @@
         <v>1.9092613088522501</v>
       </c>
       <c r="K30">
-        <v>17776720.1230327</v>
+        <v>17776720123032.699</v>
       </c>
       <c r="L30">
-        <v>27456.6499423327</v>
+        <v>27456649942.332699</v>
       </c>
       <c r="M30">
         <v>9.6014933611904094E-2</v>
@@ -4233,10 +4264,10 @@
         <v>1.99782727581186</v>
       </c>
       <c r="K31">
-        <v>28056592.588084299</v>
+        <v>28056592588084.301</v>
       </c>
       <c r="L31">
-        <v>163363.46792490699</v>
+        <v>163363467924.90701</v>
       </c>
       <c r="M31">
         <v>0.11157959441632299</v>
@@ -4301,10 +4332,10 @@
         <v>2.48244750942008</v>
       </c>
       <c r="K32">
-        <v>22505376.664462</v>
+        <v>22505376664462</v>
       </c>
       <c r="L32">
-        <v>67490.936000296206</v>
+        <v>67490936000.296204</v>
       </c>
       <c r="M32">
         <v>8.2985755031406205E-2</v>
@@ -4369,10 +4400,10 @@
         <v>2.6095952191307599</v>
       </c>
       <c r="K33">
-        <v>13714305.4860225</v>
+        <v>13714305486022.5</v>
       </c>
       <c r="L33">
-        <v>127896.718119071</v>
+        <v>127896718119.071</v>
       </c>
       <c r="M33">
         <v>9.3337973404032895E-2</v>
@@ -4437,10 +4468,10 @@
         <v>2.5891607569715198</v>
       </c>
       <c r="K34">
-        <v>29898334.224516001</v>
+        <v>29898334224516</v>
       </c>
       <c r="L34">
-        <v>116630.501670372</v>
+        <v>116630501670.37199</v>
       </c>
       <c r="M34">
         <v>0.108670588977723</v>
@@ -4505,10 +4536,10 @@
         <v>2.3644584794448802</v>
       </c>
       <c r="K35">
-        <v>9444838.0431425907</v>
+        <v>9444838043142.5898</v>
       </c>
       <c r="L35">
-        <v>13902.0209907834</v>
+        <v>13902020990.7834</v>
       </c>
       <c r="M35">
         <v>0.128005417608308</v>
@@ -4573,10 +4604,10 @@
         <v>2.56483825362763</v>
       </c>
       <c r="K36">
-        <v>5830970.9649395896</v>
+        <v>5830970964939.5898</v>
       </c>
       <c r="L36">
-        <v>17920.219014099599</v>
+        <v>17920219014.099602</v>
       </c>
       <c r="M36">
         <v>0.117802575360147</v>
@@ -4641,10 +4672,10 @@
         <v>3.4616485809709299</v>
       </c>
       <c r="K37">
-        <v>10095299.0759016</v>
+        <v>10095299075901.6</v>
       </c>
       <c r="L37">
-        <v>67842.842944291202</v>
+        <v>67842842944.291199</v>
       </c>
       <c r="M37">
         <v>7.8750611522974398E-2</v>
@@ -4709,10 +4740,10 @@
         <v>3.7349771440898301</v>
       </c>
       <c r="K38">
-        <v>1569981.88846914</v>
+        <v>1569981888469.1399</v>
       </c>
       <c r="L38">
-        <v>12392.2004078626</v>
+        <v>12392200407.8626</v>
       </c>
       <c r="M38">
         <v>0.10005265309613499</v>
@@ -4777,10 +4808,10 @@
         <v>3.5852870172283602</v>
       </c>
       <c r="K39">
-        <v>3570454.66633484</v>
+        <v>3570454666334.8398</v>
       </c>
       <c r="L39">
-        <v>43098.633076161597</v>
+        <v>43098633076.161598</v>
       </c>
       <c r="M39">
         <v>8.5939614707505399E-2</v>
@@ -4845,10 +4876,10 @@
         <v>3.5510000000000002</v>
       </c>
       <c r="K40">
-        <v>375635.10333428002</v>
+        <v>375635103334.28003</v>
       </c>
       <c r="L40">
-        <v>5932.3033319206997</v>
+        <v>5932303331.9207001</v>
       </c>
       <c r="M40">
         <v>3.3181403828623501E-2</v>
@@ -4913,10 +4944,10 @@
         <v>3.45328469552949</v>
       </c>
       <c r="K41">
-        <v>229975.250881919</v>
+        <v>229975250881.91901</v>
       </c>
       <c r="L41">
-        <v>1527.54372624854</v>
+        <v>1527543726.2485399</v>
       </c>
       <c r="M41">
         <v>8.8426098457446395E-2</v>
@@ -4981,10 +5012,10 @@
         <v>5.0404770688926099</v>
       </c>
       <c r="K42">
-        <v>123639.764469656</v>
+        <v>123639764469.65601</v>
       </c>
       <c r="L42">
-        <v>769.45250840967196</v>
+        <v>769452508.40967202</v>
       </c>
       <c r="M42" t="s">
         <v>23</v>
@@ -5049,10 +5080,10 @@
         <v>4.7580720253136501</v>
       </c>
       <c r="K43">
-        <v>4158.1932629213197</v>
+        <v>4158193262.92132</v>
       </c>
       <c r="L43">
-        <v>182.82166654697801</v>
+        <v>182821666.546978</v>
       </c>
       <c r="M43" t="s">
         <v>23</v>
@@ -5117,10 +5148,10 @@
         <v>5.2858409089068399</v>
       </c>
       <c r="K44">
-        <v>4882.9780935007002</v>
+        <v>4882978093.5007</v>
       </c>
       <c r="L44">
-        <v>416.64972435707301</v>
+        <v>416649724.35707301</v>
       </c>
       <c r="M44" t="s">
         <v>23</v>
@@ -5185,10 +5216,10 @@
         <v>5.5530475165216702</v>
       </c>
       <c r="K45">
-        <v>197.569759453237</v>
+        <v>197569759.453237</v>
       </c>
       <c r="L45">
-        <v>10.1862369675636</v>
+        <v>10186236.967563599</v>
       </c>
       <c r="M45" t="s">
         <v>23</v>
@@ -5253,10 +5284,10 @@
         <v>5.5120678641396701</v>
       </c>
       <c r="K46">
-        <v>353.43626451324099</v>
+        <v>353436264.51324099</v>
       </c>
       <c r="L46">
-        <v>27.025424846792198</v>
+        <v>27025424.846792199</v>
       </c>
       <c r="M46" t="s">
         <v>23</v>
@@ -5635,6 +5666,2305 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F178A4-50E9-844C-8F80-B83168502C4D}">
+  <dimension ref="A1:N59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>772209.94584998896</v>
+      </c>
+      <c r="D2">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E2" s="19">
+        <v>9.7499999999999996E-4</v>
+      </c>
+      <c r="F2">
+        <v>15366977.9224147</v>
+      </c>
+      <c r="G2">
+        <v>15761002997.348499</v>
+      </c>
+      <c r="H2">
+        <v>10.1975838516277</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>687930.18275763805</v>
+      </c>
+      <c r="D3">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E3" s="19">
+        <v>9.7499999999999996E-4</v>
+      </c>
+      <c r="F3">
+        <v>13689810.636877</v>
+      </c>
+      <c r="G3">
+        <v>14040831422.437901</v>
+      </c>
+      <c r="H3">
+        <v>10.147392825136</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>729647.05695459095</v>
+      </c>
+      <c r="D4">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E4" s="19">
+        <v>9.7499999999999996E-4</v>
+      </c>
+      <c r="F4">
+        <v>14519976.4333963</v>
+      </c>
+      <c r="G4">
+        <v>14892283521.4321</v>
+      </c>
+      <c r="H4">
+        <v>10.172961295785701</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>963892.19015049096</v>
+      </c>
+      <c r="D5">
+        <v>12.2</v>
+      </c>
+      <c r="E5">
+        <v>1.0249999999999899E-3</v>
+      </c>
+      <c r="F5">
+        <v>11759484.7198359</v>
+      </c>
+      <c r="G5">
+        <v>11472668019.3521</v>
+      </c>
+      <c r="H5">
+        <v>10.0596644267365</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="N5" s="17"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>925140.23128302605</v>
+      </c>
+      <c r="D6">
+        <v>12.2</v>
+      </c>
+      <c r="E6">
+        <v>1.0249999999999899E-3</v>
+      </c>
+      <c r="F6">
+        <v>11286710.8216529</v>
+      </c>
+      <c r="G6">
+        <v>11011425191.856501</v>
+      </c>
+      <c r="H6">
+        <v>10.0418435326776</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="N6" s="17"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>919332.42067073996</v>
+      </c>
+      <c r="D7">
+        <v>12.2</v>
+      </c>
+      <c r="E7">
+        <v>1.0249999999999899E-3</v>
+      </c>
+      <c r="F7">
+        <v>11215855.532183001</v>
+      </c>
+      <c r="G7">
+        <v>10942298080.178499</v>
+      </c>
+      <c r="H7">
+        <v>10.039108541259701</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="N7" s="17"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1280434.34758194</v>
+      </c>
+      <c r="D8">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="E8">
+        <v>1E-3</v>
+      </c>
+      <c r="F8">
+        <v>12317778.4237382</v>
+      </c>
+      <c r="G8">
+        <v>12317778423.738199</v>
+      </c>
+      <c r="H8">
+        <v>10.090532387592001</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="N8" s="17"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1312496.74182587</v>
+      </c>
+      <c r="D9">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="E9">
+        <v>1E-3</v>
+      </c>
+      <c r="F9">
+        <v>12626218.656364899</v>
+      </c>
+      <c r="G9">
+        <v>12626218656.364901</v>
+      </c>
+      <c r="H9">
+        <v>10.1012733060138</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="N9" s="17"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1261461.19265068</v>
+      </c>
+      <c r="D10">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="E10">
+        <v>1E-3</v>
+      </c>
+      <c r="F10">
+        <v>12135256.673299599</v>
+      </c>
+      <c r="G10">
+        <v>12135256673.299601</v>
+      </c>
+      <c r="H10">
+        <v>10.084048966545</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="N10" s="17"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1608798.43528648</v>
+      </c>
+      <c r="D11">
+        <v>12.3</v>
+      </c>
+      <c r="E11">
+        <v>1.075E-3</v>
+      </c>
+      <c r="F11">
+        <v>19788220.754023701</v>
+      </c>
+      <c r="G11">
+        <v>18407647213.0453</v>
+      </c>
+      <c r="H11">
+        <v>10.2649982823828</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="L11">
+        <v>6</v>
+      </c>
+      <c r="N11" s="17"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1544336.03691638</v>
+      </c>
+      <c r="D12">
+        <v>12.3</v>
+      </c>
+      <c r="E12">
+        <v>1.075E-3</v>
+      </c>
+      <c r="F12">
+        <v>18995333.2540715</v>
+      </c>
+      <c r="G12">
+        <v>17670077445.6479</v>
+      </c>
+      <c r="H12">
+        <v>10.247238452967</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="L12">
+        <v>6</v>
+      </c>
+      <c r="N12" s="17"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>1507834.8283484001</v>
+      </c>
+      <c r="D13">
+        <v>12.3</v>
+      </c>
+      <c r="E13">
+        <v>1.075E-3</v>
+      </c>
+      <c r="F13">
+        <v>18546368.388685402</v>
+      </c>
+      <c r="G13">
+        <v>17252435710.404999</v>
+      </c>
+      <c r="H13">
+        <v>10.236850417723099</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="L13">
+        <v>6</v>
+      </c>
+      <c r="N13" s="17"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>4233261.6659258604</v>
+      </c>
+      <c r="D14">
+        <v>6.7299999999999898</v>
+      </c>
+      <c r="E14">
+        <v>1.0249999999999899E-3</v>
+      </c>
+      <c r="F14">
+        <v>28489851.011681002</v>
+      </c>
+      <c r="G14">
+        <v>27794976596.762001</v>
+      </c>
+      <c r="H14">
+        <v>10.4439663127008</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>4580996.6602682797</v>
+      </c>
+      <c r="D15">
+        <v>6.7299999999999898</v>
+      </c>
+      <c r="E15">
+        <v>1.0249999999999899E-3</v>
+      </c>
+      <c r="F15">
+        <v>30830107.523605499</v>
+      </c>
+      <c r="G15">
+        <v>30078153681.566299</v>
+      </c>
+      <c r="H15">
+        <v>10.478251173990101</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>4005061.4670241899</v>
+      </c>
+      <c r="D16">
+        <v>6.7299999999999898</v>
+      </c>
+      <c r="E16">
+        <v>1.0249999999999899E-3</v>
+      </c>
+      <c r="F16">
+        <v>26954063.6730728</v>
+      </c>
+      <c r="G16">
+        <v>26296647485.924702</v>
+      </c>
+      <c r="H16">
+        <v>10.419900384566899</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1988249.39637219</v>
+      </c>
+      <c r="D17">
+        <v>10.6</v>
+      </c>
+      <c r="E17">
+        <v>1E-3</v>
+      </c>
+      <c r="F17">
+        <v>21075443.6015452</v>
+      </c>
+      <c r="G17">
+        <v>21075443601.5452</v>
+      </c>
+      <c r="H17">
+        <v>10.323776724538799</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>2194685.4983355901</v>
+      </c>
+      <c r="D18">
+        <v>10.6</v>
+      </c>
+      <c r="E18">
+        <v>1E-3</v>
+      </c>
+      <c r="F18">
+        <v>23263666.282357302</v>
+      </c>
+      <c r="G18">
+        <v>23263666282.3573</v>
+      </c>
+      <c r="H18">
+        <v>10.366678159262699</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>2186511.3310833601</v>
+      </c>
+      <c r="D19">
+        <v>10.6</v>
+      </c>
+      <c r="E19">
+        <v>1E-3</v>
+      </c>
+      <c r="F19">
+        <v>23177020.1094836</v>
+      </c>
+      <c r="G19">
+        <v>23177020109.483601</v>
+      </c>
+      <c r="H19">
+        <v>10.365057597581</v>
+      </c>
+      <c r="I19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1747095.4614564099</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>1.0249999999999899E-3</v>
+      </c>
+      <c r="F20">
+        <v>12229668.2301949</v>
+      </c>
+      <c r="G20">
+        <v>11931383639.2145</v>
+      </c>
+      <c r="H20">
+        <v>10.0766908101441</v>
+      </c>
+      <c r="I20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="N20" s="17"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>2159643.9341521398</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>1.0249999999999899E-3</v>
+      </c>
+      <c r="F21">
+        <v>15117507.539065</v>
+      </c>
+      <c r="G21">
+        <v>14748787842.9902</v>
+      </c>
+      <c r="H21">
+        <v>10.168756328467801</v>
+      </c>
+      <c r="I21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="N21" s="17"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>2117759.08575133</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>1.0249999999999899E-3</v>
+      </c>
+      <c r="F22">
+        <v>14824313.6002593</v>
+      </c>
+      <c r="G22">
+        <v>14462744975.8627</v>
+      </c>
+      <c r="H22">
+        <v>10.1602507282788</v>
+      </c>
+      <c r="I22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="N22" s="17"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>2533257.6784715299</v>
+      </c>
+      <c r="D23">
+        <v>11.3</v>
+      </c>
+      <c r="E23">
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="F23">
+        <v>28625811.7667282</v>
+      </c>
+      <c r="G23">
+        <v>27262677873.074501</v>
+      </c>
+      <c r="H23">
+        <v>10.4355685121142</v>
+      </c>
+      <c r="I23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="N23" s="17"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>2903183.5422702101</v>
+      </c>
+      <c r="D24">
+        <v>11.3</v>
+      </c>
+      <c r="E24">
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="F24">
+        <v>32805974.0276534</v>
+      </c>
+      <c r="G24">
+        <v>31243784788.241299</v>
+      </c>
+      <c r="H24">
+        <v>10.49476363766</v>
+      </c>
+      <c r="I24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="N24" s="17"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>2898050.1781277698</v>
+      </c>
+      <c r="D25">
+        <v>11.3</v>
+      </c>
+      <c r="E25">
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="F25">
+        <v>32747967.012843799</v>
+      </c>
+      <c r="G25">
+        <v>31188540012.232201</v>
+      </c>
+      <c r="H25">
+        <v>10.493995045181199</v>
+      </c>
+      <c r="I25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="N25" s="17"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1601827.2487079699</v>
+      </c>
+      <c r="D26">
+        <v>7.1099999999999897</v>
+      </c>
+      <c r="E26">
+        <v>1.225E-3</v>
+      </c>
+      <c r="F26">
+        <v>11388991.7383136</v>
+      </c>
+      <c r="G26">
+        <v>9297136112.9091206</v>
+      </c>
+      <c r="H26">
+        <v>9.9683491892091993</v>
+      </c>
+      <c r="I26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="L26">
+        <v>6</v>
+      </c>
+      <c r="N26" s="17"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1659604.3114255201</v>
+      </c>
+      <c r="D27">
+        <v>7.1099999999999897</v>
+      </c>
+      <c r="E27">
+        <v>1.225E-3</v>
+      </c>
+      <c r="F27">
+        <v>11799786.654235501</v>
+      </c>
+      <c r="G27">
+        <v>9632478901.4167404</v>
+      </c>
+      <c r="H27">
+        <v>9.9837380664254098</v>
+      </c>
+      <c r="I27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="L27">
+        <v>6</v>
+      </c>
+      <c r="N27" s="17"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>1620394.0106891401</v>
+      </c>
+      <c r="D28">
+        <v>7.1099999999999897</v>
+      </c>
+      <c r="E28">
+        <v>1.225E-3</v>
+      </c>
+      <c r="F28">
+        <v>11521001.4159998</v>
+      </c>
+      <c r="G28">
+        <v>9404899115.1019001</v>
+      </c>
+      <c r="H28">
+        <v>9.97335414130165</v>
+      </c>
+      <c r="I28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" t="s">
+        <v>34</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="L28">
+        <v>6</v>
+      </c>
+      <c r="N28" s="17"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1203652.72380471</v>
+      </c>
+      <c r="D29">
+        <v>5.59</v>
+      </c>
+      <c r="E29">
+        <v>1.1749999999999901E-3</v>
+      </c>
+      <c r="F29">
+        <v>6728418.72606833</v>
+      </c>
+      <c r="G29">
+        <v>5726313809.4198503</v>
+      </c>
+      <c r="H29">
+        <v>9.7578751442383194</v>
+      </c>
+      <c r="I29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>25</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>1205551.6771072401</v>
+      </c>
+      <c r="D30">
+        <v>5.59</v>
+      </c>
+      <c r="E30">
+        <v>1.1749999999999901E-3</v>
+      </c>
+      <c r="F30">
+        <v>6739033.8750294698</v>
+      </c>
+      <c r="G30">
+        <v>5735347978.7484903</v>
+      </c>
+      <c r="H30">
+        <v>9.7585597728328501</v>
+      </c>
+      <c r="I30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" t="s">
+        <v>34</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>1267749.56177356</v>
+      </c>
+      <c r="D31">
+        <v>5.59</v>
+      </c>
+      <c r="E31">
+        <v>1.1749999999999901E-3</v>
+      </c>
+      <c r="F31">
+        <v>7086720.0503142504</v>
+      </c>
+      <c r="G31">
+        <v>6031251106.6504297</v>
+      </c>
+      <c r="H31">
+        <v>9.7804074103748508</v>
+      </c>
+      <c r="I31" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>3291270.1512921401</v>
+      </c>
+      <c r="D32">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="E32">
+        <v>1.6666666666666601E-3</v>
+      </c>
+      <c r="F32">
+        <v>15995572.9352798</v>
+      </c>
+      <c r="G32">
+        <v>9597343761.1678905</v>
+      </c>
+      <c r="H32">
+        <v>9.9821510508009101</v>
+      </c>
+      <c r="I32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" t="s">
+        <v>35</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>3419027.9796877</v>
+      </c>
+      <c r="D33">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="E33">
+        <v>1.6666666666666601E-3</v>
+      </c>
+      <c r="F33">
+        <v>16616475.981282201</v>
+      </c>
+      <c r="G33">
+        <v>9969885588.7693291</v>
+      </c>
+      <c r="H33">
+        <v>9.99869017451514</v>
+      </c>
+      <c r="I33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" t="s">
+        <v>35</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>3675812.02941284</v>
+      </c>
+      <c r="D34">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="E34">
+        <v>1.6666666666666601E-3</v>
+      </c>
+      <c r="F34">
+        <v>17864446.4629464</v>
+      </c>
+      <c r="G34">
+        <v>10718667877.767799</v>
+      </c>
+      <c r="H34">
+        <v>10.0301408143415</v>
+      </c>
+      <c r="I34" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" t="s">
+        <v>35</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1184144.7309107501</v>
+      </c>
+      <c r="D35">
+        <v>2.29</v>
+      </c>
+      <c r="E35">
+        <v>1.7916666666666599E-3</v>
+      </c>
+      <c r="F35">
+        <v>2711691.4337856299</v>
+      </c>
+      <c r="G35">
+        <v>1513502195.60128</v>
+      </c>
+      <c r="H35">
+        <v>9.1799830553136204</v>
+      </c>
+      <c r="I35" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" t="s">
+        <v>35</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="N35" s="17"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>1246636.2957709499</v>
+      </c>
+      <c r="D36">
+        <v>2.29</v>
+      </c>
+      <c r="E36">
+        <v>1.7916666666666599E-3</v>
+      </c>
+      <c r="F36">
+        <v>2854797.1173154898</v>
+      </c>
+      <c r="G36">
+        <v>1593375135.2458501</v>
+      </c>
+      <c r="H36">
+        <v>9.2023180356801895</v>
+      </c>
+      <c r="I36" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="N36" s="17"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>32</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>1254220.1307513199</v>
+      </c>
+      <c r="D37">
+        <v>2.29</v>
+      </c>
+      <c r="E37">
+        <v>1.7916666666666599E-3</v>
+      </c>
+      <c r="F37">
+        <v>2872164.09942052</v>
+      </c>
+      <c r="G37">
+        <v>1603068334.5602901</v>
+      </c>
+      <c r="H37">
+        <v>9.2049520355730508</v>
+      </c>
+      <c r="I37" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="N37" s="17"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>33</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1711297.2560486901</v>
+      </c>
+      <c r="D38">
+        <v>3.4299999999999899</v>
+      </c>
+      <c r="E38">
+        <v>1.7916666666666599E-3</v>
+      </c>
+      <c r="F38">
+        <v>5869749.58824703</v>
+      </c>
+      <c r="G38">
+        <v>3276139305.06811</v>
+      </c>
+      <c r="H38">
+        <v>9.5153623601628894</v>
+      </c>
+      <c r="I38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" t="s">
+        <v>35</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="L38">
+        <v>4</v>
+      </c>
+      <c r="N38" s="17"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>33</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>1929176.24764544</v>
+      </c>
+      <c r="D39">
+        <v>3.4299999999999899</v>
+      </c>
+      <c r="E39">
+        <v>1.7916666666666599E-3</v>
+      </c>
+      <c r="F39">
+        <v>6617074.5294238599</v>
+      </c>
+      <c r="G39">
+        <v>3693250900.1435499</v>
+      </c>
+      <c r="H39">
+        <v>9.5674088123481091</v>
+      </c>
+      <c r="I39" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39" t="s">
+        <v>35</v>
+      </c>
+      <c r="K39" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="L39">
+        <v>4</v>
+      </c>
+      <c r="N39" s="17"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>33</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>1954626.7387401999</v>
+      </c>
+      <c r="D40">
+        <v>3.4299999999999899</v>
+      </c>
+      <c r="E40">
+        <v>1.7916666666666599E-3</v>
+      </c>
+      <c r="F40">
+        <v>6704369.7138789101</v>
+      </c>
+      <c r="G40">
+        <v>3741973793.7928801</v>
+      </c>
+      <c r="H40">
+        <v>9.5731007416752103</v>
+      </c>
+      <c r="I40" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40" t="s">
+        <v>35</v>
+      </c>
+      <c r="K40" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="L40">
+        <v>4</v>
+      </c>
+      <c r="N40" s="17"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>34</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>678606.72351958195</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1.83333333333333E-3</v>
+      </c>
+      <c r="F41">
+        <v>678606.72351958195</v>
+      </c>
+      <c r="G41">
+        <v>370149121.91977203</v>
+      </c>
+      <c r="H41">
+        <v>8.5683767234714292</v>
+      </c>
+      <c r="I41" t="s">
+        <v>27</v>
+      </c>
+      <c r="J41" t="s">
+        <v>35</v>
+      </c>
+      <c r="K41" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="L41">
+        <v>6</v>
+      </c>
+      <c r="N41" s="17"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>34</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>710396.10429039504</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1.83333333333333E-3</v>
+      </c>
+      <c r="F42">
+        <v>710396.10429039504</v>
+      </c>
+      <c r="G42">
+        <v>387488784.15839702</v>
+      </c>
+      <c r="H42">
+        <v>8.5882591363942904</v>
+      </c>
+      <c r="I42" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" t="s">
+        <v>35</v>
+      </c>
+      <c r="K42" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="L42">
+        <v>6</v>
+      </c>
+      <c r="N42" s="17"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>34</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>676990.24052856304</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1.83333333333333E-3</v>
+      </c>
+      <c r="F43">
+        <v>676990.24052856304</v>
+      </c>
+      <c r="G43">
+        <v>369267403.92467099</v>
+      </c>
+      <c r="H43">
+        <v>8.5673409731791796</v>
+      </c>
+      <c r="I43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" t="s">
+        <v>35</v>
+      </c>
+      <c r="K43" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="L43">
+        <v>6</v>
+      </c>
+      <c r="N43" s="17"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>35</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>485451.37770580099</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>2.1250000000000002E-3</v>
+      </c>
+      <c r="F44">
+        <v>485451.37770580099</v>
+      </c>
+      <c r="G44">
+        <v>228447707.155671</v>
+      </c>
+      <c r="H44">
+        <v>8.3587868035620598</v>
+      </c>
+      <c r="I44" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" t="s">
+        <v>35</v>
+      </c>
+      <c r="K44" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>35</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>491943.43854235701</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>2.1250000000000002E-3</v>
+      </c>
+      <c r="F45">
+        <v>491943.43854235701</v>
+      </c>
+      <c r="G45">
+        <v>231502794.60816801</v>
+      </c>
+      <c r="H45">
+        <v>8.3645562380130691</v>
+      </c>
+      <c r="I45" t="s">
+        <v>27</v>
+      </c>
+      <c r="J45" t="s">
+        <v>35</v>
+      </c>
+      <c r="K45" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>41</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>416664.66591004399</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>3.3571428571428502E-3</v>
+      </c>
+      <c r="F46">
+        <v>416664.66591004399</v>
+      </c>
+      <c r="G46">
+        <v>124112879.207247</v>
+      </c>
+      <c r="H46">
+        <v>8.0938168506237602</v>
+      </c>
+      <c r="I46" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" t="s">
+        <v>36</v>
+      </c>
+      <c r="K46" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L46">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>41</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>410024.716883899</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>3.3571428571428502E-3</v>
+      </c>
+      <c r="F47">
+        <v>410024.716883899</v>
+      </c>
+      <c r="G47">
+        <v>122135022.050523</v>
+      </c>
+      <c r="H47">
+        <v>8.0868402151518595</v>
+      </c>
+      <c r="I47" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" t="s">
+        <v>36</v>
+      </c>
+      <c r="K47" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>41</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>418539.673650451</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>3.3571428571428502E-3</v>
+      </c>
+      <c r="F48">
+        <v>418539.673650451</v>
+      </c>
+      <c r="G48">
+        <v>124671392.151198</v>
+      </c>
+      <c r="H48">
+        <v>8.0957668090821109</v>
+      </c>
+      <c r="I48" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" t="s">
+        <v>36</v>
+      </c>
+      <c r="K48" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>42</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>14573.407263215</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>3.3571428571428502E-3</v>
+      </c>
+      <c r="F49">
+        <v>14573.407263215</v>
+      </c>
+      <c r="G49">
+        <v>4341014.9294683002</v>
+      </c>
+      <c r="H49">
+        <v>6.6375912794518097</v>
+      </c>
+      <c r="I49" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" t="s">
+        <v>36</v>
+      </c>
+      <c r="K49" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="N49" s="17"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>42</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>13345.8903592567</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>3.3571428571428502E-3</v>
+      </c>
+      <c r="F50">
+        <v>13345.8903592567</v>
+      </c>
+      <c r="G50">
+        <v>3975371.5963743399</v>
+      </c>
+      <c r="H50">
+        <v>6.5993777304043197</v>
+      </c>
+      <c r="I50" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" t="s">
+        <v>36</v>
+      </c>
+      <c r="K50" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="N50" s="17"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>43</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>19716.860056232501</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>3.5142857142857098E-3</v>
+      </c>
+      <c r="F51">
+        <v>19716.860056232501</v>
+      </c>
+      <c r="G51">
+        <v>5610488.6338873198</v>
+      </c>
+      <c r="H51">
+        <v>6.74900068688176</v>
+      </c>
+      <c r="I51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" t="s">
+        <v>36</v>
+      </c>
+      <c r="K51" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="L51">
+        <v>4</v>
+      </c>
+      <c r="N51" s="17"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>43</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>17118.535718904299</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>3.5142857142857098E-3</v>
+      </c>
+      <c r="F52">
+        <v>17118.535718904299</v>
+      </c>
+      <c r="G52">
+        <v>4871128.0500947405</v>
+      </c>
+      <c r="H52">
+        <v>6.6876295462661997</v>
+      </c>
+      <c r="I52" t="s">
+        <v>29</v>
+      </c>
+      <c r="J52" t="s">
+        <v>36</v>
+      </c>
+      <c r="K52" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="L52">
+        <v>4</v>
+      </c>
+      <c r="N52" s="17"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>43</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>14645.1446963418</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>3.5142857142857098E-3</v>
+      </c>
+      <c r="F53">
+        <v>14645.1446963418</v>
+      </c>
+      <c r="G53">
+        <v>4167317.59652005</v>
+      </c>
+      <c r="H53">
+        <v>6.6198565998477399</v>
+      </c>
+      <c r="I53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53" t="s">
+        <v>36</v>
+      </c>
+      <c r="K53" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="L53">
+        <v>4</v>
+      </c>
+      <c r="N53" s="17"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>44</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>737.99524056165001</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>3.6142857142857101E-3</v>
+      </c>
+      <c r="F54">
+        <v>737.99524056165001</v>
+      </c>
+      <c r="G54">
+        <v>204188.406479508</v>
+      </c>
+      <c r="H54">
+        <v>5.3100310798423997</v>
+      </c>
+      <c r="I54" t="s">
+        <v>29</v>
+      </c>
+      <c r="J54" t="s">
+        <v>36</v>
+      </c>
+      <c r="K54" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="L54">
+        <v>6</v>
+      </c>
+      <c r="N54" s="17"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>44</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>762.42077744272001</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>3.6142857142857101E-3</v>
+      </c>
+      <c r="F55">
+        <v>762.42077744272001</v>
+      </c>
+      <c r="G55">
+        <v>210946.460162017</v>
+      </c>
+      <c r="H55">
+        <v>5.3241722419956803</v>
+      </c>
+      <c r="I55" t="s">
+        <v>29</v>
+      </c>
+      <c r="J55" t="s">
+        <v>36</v>
+      </c>
+      <c r="K55" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="L55">
+        <v>6</v>
+      </c>
+      <c r="N55" s="17"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>44</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>641.80465949573795</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>3.6142857142857101E-3</v>
+      </c>
+      <c r="F56">
+        <v>641.80465949573795</v>
+      </c>
+      <c r="G56">
+        <v>177574.411718188</v>
+      </c>
+      <c r="H56">
+        <v>5.2493803845831799</v>
+      </c>
+      <c r="I56" t="s">
+        <v>29</v>
+      </c>
+      <c r="J56" t="s">
+        <v>36</v>
+      </c>
+      <c r="K56" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="L56">
+        <v>6</v>
+      </c>
+      <c r="N56" s="17"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>45</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1517.50737973996</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>3.8E-3</v>
+      </c>
+      <c r="F57">
+        <v>1517.50737973996</v>
+      </c>
+      <c r="G57">
+        <v>399344.04729999002</v>
+      </c>
+      <c r="H57">
+        <v>5.60134721513875</v>
+      </c>
+      <c r="I57" t="s">
+        <v>29</v>
+      </c>
+      <c r="J57" t="s">
+        <v>36</v>
+      </c>
+      <c r="K57" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>45</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>1349.7228111386801</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>3.8E-3</v>
+      </c>
+      <c r="F58">
+        <v>1349.7228111386801</v>
+      </c>
+      <c r="G58">
+        <v>355190.213457548</v>
+      </c>
+      <c r="H58">
+        <v>5.5504609911720504</v>
+      </c>
+      <c r="I58" t="s">
+        <v>29</v>
+      </c>
+      <c r="J58" t="s">
+        <v>36</v>
+      </c>
+      <c r="K58" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>45</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>1161.9432245723001</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>3.8E-3</v>
+      </c>
+      <c r="F59">
+        <v>1161.9432245723001</v>
+      </c>
+      <c r="G59">
+        <v>305774.53278218501</v>
+      </c>
+      <c r="H59">
+        <v>5.4854013112504498</v>
+      </c>
+      <c r="I59" t="s">
+        <v>29</v>
+      </c>
+      <c r="J59" t="s">
+        <v>36</v>
+      </c>
+      <c r="K59" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L59">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D75BE77-D9C4-A34E-AF51-EB34433FC22D}">
   <dimension ref="A1:Y32"/>
   <sheetViews>

--- a/PuuEke_AllData.xlsx
+++ b/PuuEke_AllData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emily/Box Sync/Stanford (elacroix@stanford.edu)/Research/AnoxicMicrositesHawaii/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emily/GitHub/pu-u-eke-14c/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845F0C25-902C-434D-8133-A0235B5A5DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDF6A98-7EAF-434E-BEB7-39389E4394B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36100" yWindow="-1620" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{C8CB3AD8-63AF-2E43-9BDC-473FC067992C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{C8CB3AD8-63AF-2E43-9BDC-473FC067992C}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>c14</t>
   </si>
   <si>
-    <t>sro_minerals_mmol_kg</t>
-  </si>
-  <si>
     <t>copy_number_16s_rrna_per_kg</t>
   </si>
   <si>
@@ -505,9 +502,6 @@
     <t>14C values in per mille</t>
   </si>
   <si>
-    <t>Ammonium oxalate extractable Al, Si + Fe in mmol per kg soil</t>
-  </si>
-  <si>
     <t>Raw copy numbers of 16S rRNA gene by qPCR</t>
   </si>
   <si>
@@ -596,6 +590,12 @@
   </si>
   <si>
     <t>avg_dist_mm</t>
+  </si>
+  <si>
+    <t>sro_minerals_mol_kg</t>
+  </si>
+  <si>
+    <t>Ammonium oxalate extractable Al, Si + Fe in mol per kg soil</t>
   </si>
 </sst>
 </file>
@@ -1024,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10B09FD-98E1-CF48-9BB7-765647190D7B}">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1035,7 +1035,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1143,10 +1143,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>141</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>142</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1186,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -1206,7 +1206,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1226,7 +1226,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1246,7 +1246,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1266,7 +1266,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1283,10 +1283,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1306,7 +1306,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1326,7 +1326,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1343,10 +1343,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -1383,10 +1383,10 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1403,10 +1403,10 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1423,10 +1423,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1463,10 +1463,10 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -1483,10 +1483,10 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -1523,10 +1523,10 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -1543,10 +1543,10 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -1563,10 +1563,10 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>141</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>142</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -1655,10 +1655,10 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -1675,10 +1675,10 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -1695,10 +1695,10 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -1735,10 +1735,10 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -1755,10 +1755,10 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -1775,10 +1775,10 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -1795,10 +1795,10 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -1815,10 +1815,10 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -1835,10 +1835,10 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -1855,10 +1855,10 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -1875,10 +1875,10 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -1915,10 +1915,10 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -1935,10 +1935,10 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -1955,10 +1955,10 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -1975,10 +1975,10 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -1995,10 +1995,10 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -2015,10 +2015,10 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -2075,10 +2075,10 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -2095,10 +2095,10 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -2115,10 +2115,10 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -2135,10 +2135,10 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -2163,7 +2163,7 @@
   <dimension ref="A1:V51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2212,7 +2212,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -2221,43 +2221,43 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -2265,13 +2265,13 @@
         <v>2011</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="E2">
         <v>0.5</v>
@@ -2292,40 +2292,40 @@
         <v>1.95771069357517</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -2333,13 +2333,13 @@
         <v>2011</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
       <c r="D3" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -2360,40 +2360,40 @@
         <v>1.8103666650846599</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -2401,13 +2401,13 @@
         <v>2011</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
       <c r="D4" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -2428,40 +2428,40 @@
         <v>1.8897912642191499</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -2469,13 +2469,13 @@
         <v>2011</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
       <c r="D5" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E5">
         <v>6</v>
@@ -2496,40 +2496,40 @@
         <v>1.8812873712079801</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -2537,13 +2537,13 @@
         <v>2011</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
       <c r="D6" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -2564,40 +2564,40 @@
         <v>1.7927651505550699</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -2605,13 +2605,13 @@
         <v>2011</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
       <c r="D7" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0.5</v>
@@ -2632,40 +2632,40 @@
         <v>2.0464149809876702</v>
       </c>
       <c r="K7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
@@ -2673,13 +2673,13 @@
         <v>2011</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
       <c r="D8" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -2700,40 +2700,40 @@
         <v>2.07501921483831</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -2741,13 +2741,13 @@
         <v>2011</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
       <c r="D9" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -2768,40 +2768,40 @@
         <v>2.1822947108462301</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -2809,13 +2809,13 @@
         <v>2011</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
       <c r="D10" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E10">
         <v>6</v>
@@ -2836,40 +2836,40 @@
         <v>2.1142249877927899</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
@@ -2877,13 +2877,13 @@
         <v>2011</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
       <c r="D11" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -2904,40 +2904,40 @@
         <v>1.9269608284975701</v>
       </c>
       <c r="K11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
@@ -2945,13 +2945,13 @@
         <v>2011</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
       <c r="D12" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>0.5</v>
@@ -2972,40 +2972,40 @@
         <v>2.5248328186761801</v>
       </c>
       <c r="K12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
@@ -3013,13 +3013,13 @@
         <v>2011</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
       <c r="D13" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -3040,40 +3040,40 @@
         <v>2.4959427766439499</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
@@ -3081,13 +3081,13 @@
         <v>2011</v>
       </c>
       <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
       <c r="D14" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -3108,40 +3108,40 @@
         <v>2.5172302217746698</v>
       </c>
       <c r="K14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
@@ -3149,13 +3149,13 @@
         <v>2011</v>
       </c>
       <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
       <c r="D15" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E15">
         <v>6</v>
@@ -3176,40 +3176,40 @@
         <v>2.4728471932819098</v>
       </c>
       <c r="K15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
@@ -3217,13 +3217,13 @@
         <v>2011</v>
       </c>
       <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
         <v>27</v>
       </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
       <c r="D16" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -3244,40 +3244,40 @@
         <v>2.4702889440032001</v>
       </c>
       <c r="K16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
@@ -3285,13 +3285,13 @@
         <v>2011</v>
       </c>
       <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
       <c r="D17" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>0.5</v>
@@ -3312,40 +3312,40 @@
         <v>3.2256373007727501</v>
       </c>
       <c r="K17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
@@ -3353,13 +3353,13 @@
         <v>2011</v>
       </c>
       <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
         <v>29</v>
       </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
       <c r="D18" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -3380,40 +3380,40 @@
         <v>3.1094049910730899</v>
       </c>
       <c r="K18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
@@ -3421,13 +3421,13 @@
         <v>2011</v>
       </c>
       <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
         <v>29</v>
       </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
       <c r="D19" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -3448,40 +3448,40 @@
         <v>3.4582940312763601</v>
       </c>
       <c r="K19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
@@ -3489,13 +3489,13 @@
         <v>2011</v>
       </c>
       <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
         <v>29</v>
       </c>
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
       <c r="D20" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E20">
         <v>6</v>
@@ -3516,40 +3516,40 @@
         <v>3.2281232850569999</v>
       </c>
       <c r="K20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
@@ -3557,13 +3557,13 @@
         <v>2011</v>
       </c>
       <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
         <v>29</v>
       </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
       <c r="D21" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>10</v>
@@ -3584,40 +3584,40 @@
         <v>3.2280289100052499</v>
       </c>
       <c r="K21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
@@ -3625,13 +3625,13 @@
         <v>2011</v>
       </c>
       <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" t="s">
-        <v>32</v>
-      </c>
       <c r="D22" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>0.5</v>
@@ -3652,40 +3652,40 @@
         <v>3.6766839409881902</v>
       </c>
       <c r="K22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
@@ -3693,13 +3693,13 @@
         <v>2011</v>
       </c>
       <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
         <v>31</v>
       </c>
-      <c r="C23" t="s">
-        <v>32</v>
-      </c>
       <c r="D23" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -3720,40 +3720,40 @@
         <v>3.82329201042795</v>
       </c>
       <c r="K23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
@@ -3761,13 +3761,13 @@
         <v>2011</v>
       </c>
       <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
         <v>31</v>
       </c>
-      <c r="C24" t="s">
-        <v>32</v>
-      </c>
       <c r="D24" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E24">
         <v>4</v>
@@ -3788,40 +3788,40 @@
         <v>3.91823064622371</v>
       </c>
       <c r="K24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
@@ -3829,13 +3829,13 @@
         <v>2011</v>
       </c>
       <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
         <v>31</v>
       </c>
-      <c r="C25" t="s">
-        <v>32</v>
-      </c>
       <c r="D25" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E25">
         <v>6</v>
@@ -3856,40 +3856,40 @@
         <v>4.3079503385501496</v>
       </c>
       <c r="K25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
@@ -3897,13 +3897,13 @@
         <v>2011</v>
       </c>
       <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
         <v>31</v>
       </c>
-      <c r="C26" t="s">
-        <v>32</v>
-      </c>
       <c r="D26" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26">
         <v>10</v>
@@ -3924,40 +3924,40 @@
         <v>3.9449825175952098</v>
       </c>
       <c r="K26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
@@ -3965,13 +3965,13 @@
         <v>2012</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>0.5</v>
@@ -4033,13 +4033,13 @@
         <v>2012</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -4101,13 +4101,13 @@
         <v>2012</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E29">
         <v>4</v>
@@ -4169,13 +4169,13 @@
         <v>2012</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E30">
         <v>6</v>
@@ -4237,13 +4237,13 @@
         <v>2012</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <v>10</v>
@@ -4305,13 +4305,13 @@
         <v>2012</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E32">
         <v>0.5</v>
@@ -4341,31 +4341,31 @@
         <v>8.2985755031406205E-2</v>
       </c>
       <c r="N32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
@@ -4373,13 +4373,13 @@
         <v>2012</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -4409,31 +4409,31 @@
         <v>9.3337973404032895E-2</v>
       </c>
       <c r="N33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
@@ -4441,13 +4441,13 @@
         <v>2012</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E34">
         <v>4</v>
@@ -4477,31 +4477,31 @@
         <v>0.108670588977723</v>
       </c>
       <c r="N34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
@@ -4509,13 +4509,13 @@
         <v>2012</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E35">
         <v>6</v>
@@ -4545,31 +4545,31 @@
         <v>0.128005417608308</v>
       </c>
       <c r="N35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
@@ -4577,13 +4577,13 @@
         <v>2012</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E36">
         <v>10</v>
@@ -4613,31 +4613,31 @@
         <v>0.117802575360147</v>
       </c>
       <c r="N36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
@@ -4645,13 +4645,13 @@
         <v>2012</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E37">
         <v>0.5</v>
@@ -4681,31 +4681,31 @@
         <v>7.8750611522974398E-2</v>
       </c>
       <c r="N37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
@@ -4713,13 +4713,13 @@
         <v>2012</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -4749,31 +4749,31 @@
         <v>0.10005265309613499</v>
       </c>
       <c r="N38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
@@ -4781,13 +4781,13 @@
         <v>2012</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E39">
         <v>4</v>
@@ -4817,31 +4817,31 @@
         <v>8.5939614707505399E-2</v>
       </c>
       <c r="N39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
@@ -4849,13 +4849,13 @@
         <v>2012</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E40">
         <v>6</v>
@@ -4885,31 +4885,31 @@
         <v>3.3181403828623501E-2</v>
       </c>
       <c r="N40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
@@ -4917,13 +4917,13 @@
         <v>2012</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E41">
         <v>10</v>
@@ -4953,31 +4953,31 @@
         <v>8.8426098457446395E-2</v>
       </c>
       <c r="N41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
@@ -4985,13 +4985,13 @@
         <v>2012</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E42">
         <v>0.5</v>
@@ -5018,34 +5018,34 @@
         <v>769452508.40967202</v>
       </c>
       <c r="M42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
@@ -5053,13 +5053,13 @@
         <v>2012</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -5086,34 +5086,34 @@
         <v>182821666.546978</v>
       </c>
       <c r="M43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
@@ -5121,13 +5121,13 @@
         <v>2012</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E44">
         <v>4</v>
@@ -5154,34 +5154,34 @@
         <v>416649724.35707301</v>
       </c>
       <c r="M44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
@@ -5189,13 +5189,13 @@
         <v>2012</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E45">
         <v>6</v>
@@ -5222,34 +5222,34 @@
         <v>10186236.967563599</v>
       </c>
       <c r="M45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
@@ -5257,13 +5257,13 @@
         <v>2012</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E46">
         <v>10</v>
@@ -5290,34 +5290,34 @@
         <v>27025424.846792199</v>
       </c>
       <c r="M46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
@@ -5325,13 +5325,13 @@
         <v>2012</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E47">
         <v>0.5</v>
@@ -5352,13 +5352,13 @@
         <v>5.6425886822963998</v>
       </c>
       <c r="K47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N47">
         <v>0.7</v>
@@ -5393,13 +5393,13 @@
         <v>2012</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -5420,13 +5420,13 @@
         <v>5.8741929585632002</v>
       </c>
       <c r="K48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -5461,13 +5461,13 @@
         <v>2012</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E49">
         <v>4</v>
@@ -5488,13 +5488,13 @@
         <v>5.8740380595611299</v>
       </c>
       <c r="K49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N49">
         <v>0.5</v>
@@ -5529,13 +5529,13 @@
         <v>2012</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E50">
         <v>6</v>
@@ -5556,13 +5556,13 @@
         <v>6.1823265501253104</v>
       </c>
       <c r="K50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N50">
         <v>0.1</v>
@@ -5597,13 +5597,13 @@
         <v>2012</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E51">
         <v>10</v>
@@ -5624,13 +5624,13 @@
         <v>6.2100725732211899</v>
       </c>
       <c r="K51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N51">
         <v>0.3</v>
@@ -5669,7 +5669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F178A4-50E9-844C-8F80-B83168502C4D}">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -5684,28 +5684,28 @@
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -5717,7 +5717,7 @@
         <v>3</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -5746,13 +5746,13 @@
         <v>10.1975838516277</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2">
         <v>0.5</v>
@@ -5784,13 +5784,13 @@
         <v>10.147392825136</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L3">
         <v>0.5</v>
@@ -5822,13 +5822,13 @@
         <v>10.172961295785701</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L4">
         <v>0.5</v>
@@ -5860,13 +5860,13 @@
         <v>10.0596644267365</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L5">
         <v>2</v>
@@ -5899,13 +5899,13 @@
         <v>10.0418435326776</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L6">
         <v>2</v>
@@ -5938,13 +5938,13 @@
         <v>10.039108541259701</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L7">
         <v>2</v>
@@ -5977,13 +5977,13 @@
         <v>10.090532387592001</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L8">
         <v>4</v>
@@ -6016,13 +6016,13 @@
         <v>10.1012733060138</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L9">
         <v>4</v>
@@ -6055,13 +6055,13 @@
         <v>10.084048966545</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L10">
         <v>4</v>
@@ -6094,13 +6094,13 @@
         <v>10.2649982823828</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L11">
         <v>6</v>
@@ -6133,13 +6133,13 @@
         <v>10.247238452967</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L12">
         <v>6</v>
@@ -6172,13 +6172,13 @@
         <v>10.236850417723099</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L13">
         <v>6</v>
@@ -6211,13 +6211,13 @@
         <v>10.4439663127008</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L14">
         <v>10</v>
@@ -6249,13 +6249,13 @@
         <v>10.478251173990101</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L15">
         <v>10</v>
@@ -6287,13 +6287,13 @@
         <v>10.419900384566899</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L16">
         <v>10</v>
@@ -6325,13 +6325,13 @@
         <v>10.323776724538799</v>
       </c>
       <c r="I17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L17">
         <v>0.5</v>
@@ -6363,13 +6363,13 @@
         <v>10.366678159262699</v>
       </c>
       <c r="I18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L18">
         <v>0.5</v>
@@ -6401,13 +6401,13 @@
         <v>10.365057597581</v>
       </c>
       <c r="I19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L19">
         <v>0.5</v>
@@ -6439,13 +6439,13 @@
         <v>10.0766908101441</v>
       </c>
       <c r="I20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L20">
         <v>2</v>
@@ -6478,13 +6478,13 @@
         <v>10.168756328467801</v>
       </c>
       <c r="I21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L21">
         <v>2</v>
@@ -6517,13 +6517,13 @@
         <v>10.1602507282788</v>
       </c>
       <c r="I22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L22">
         <v>2</v>
@@ -6556,13 +6556,13 @@
         <v>10.4355685121142</v>
       </c>
       <c r="I23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L23">
         <v>4</v>
@@ -6595,13 +6595,13 @@
         <v>10.49476363766</v>
       </c>
       <c r="I24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L24">
         <v>4</v>
@@ -6634,13 +6634,13 @@
         <v>10.493995045181199</v>
       </c>
       <c r="I25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L25">
         <v>4</v>
@@ -6673,13 +6673,13 @@
         <v>9.9683491892091993</v>
       </c>
       <c r="I26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L26">
         <v>6</v>
@@ -6712,13 +6712,13 @@
         <v>9.9837380664254098</v>
       </c>
       <c r="I27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L27">
         <v>6</v>
@@ -6751,13 +6751,13 @@
         <v>9.97335414130165</v>
       </c>
       <c r="I28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L28">
         <v>6</v>
@@ -6790,13 +6790,13 @@
         <v>9.7578751442383194</v>
       </c>
       <c r="I29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L29">
         <v>10</v>
@@ -6828,13 +6828,13 @@
         <v>9.7585597728328501</v>
       </c>
       <c r="I30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L30">
         <v>10</v>
@@ -6866,13 +6866,13 @@
         <v>9.7804074103748508</v>
       </c>
       <c r="I31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L31">
         <v>10</v>
@@ -6904,13 +6904,13 @@
         <v>9.9821510508009101</v>
       </c>
       <c r="I32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L32">
         <v>0.5</v>
@@ -6942,13 +6942,13 @@
         <v>9.99869017451514</v>
       </c>
       <c r="I33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L33">
         <v>0.5</v>
@@ -6980,13 +6980,13 @@
         <v>10.0301408143415</v>
       </c>
       <c r="I34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L34">
         <v>0.5</v>
@@ -7018,13 +7018,13 @@
         <v>9.1799830553136204</v>
       </c>
       <c r="I35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L35">
         <v>2</v>
@@ -7057,13 +7057,13 @@
         <v>9.2023180356801895</v>
       </c>
       <c r="I36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L36">
         <v>2</v>
@@ -7096,13 +7096,13 @@
         <v>9.2049520355730508</v>
       </c>
       <c r="I37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L37">
         <v>2</v>
@@ -7135,13 +7135,13 @@
         <v>9.5153623601628894</v>
       </c>
       <c r="I38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K38" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L38">
         <v>4</v>
@@ -7174,13 +7174,13 @@
         <v>9.5674088123481091</v>
       </c>
       <c r="I39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L39">
         <v>4</v>
@@ -7213,13 +7213,13 @@
         <v>9.5731007416752103</v>
       </c>
       <c r="I40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L40">
         <v>4</v>
@@ -7252,13 +7252,13 @@
         <v>8.5683767234714292</v>
       </c>
       <c r="I41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L41">
         <v>6</v>
@@ -7291,13 +7291,13 @@
         <v>8.5882591363942904</v>
       </c>
       <c r="I42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K42" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L42">
         <v>6</v>
@@ -7330,13 +7330,13 @@
         <v>8.5673409731791796</v>
       </c>
       <c r="I43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K43" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L43">
         <v>6</v>
@@ -7369,13 +7369,13 @@
         <v>8.3587868035620598</v>
       </c>
       <c r="I44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K44" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L44">
         <v>10</v>
@@ -7407,13 +7407,13 @@
         <v>8.3645562380130691</v>
       </c>
       <c r="I45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K45" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L45">
         <v>10</v>
@@ -7445,13 +7445,13 @@
         <v>8.0938168506237602</v>
       </c>
       <c r="I46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K46" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L46">
         <v>0.5</v>
@@ -7483,13 +7483,13 @@
         <v>8.0868402151518595</v>
       </c>
       <c r="I47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K47" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L47">
         <v>0.5</v>
@@ -7521,13 +7521,13 @@
         <v>8.0957668090821109</v>
       </c>
       <c r="I48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K48" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L48">
         <v>0.5</v>
@@ -7559,13 +7559,13 @@
         <v>6.6375912794518097</v>
       </c>
       <c r="I49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K49" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L49">
         <v>2</v>
@@ -7598,13 +7598,13 @@
         <v>6.5993777304043197</v>
       </c>
       <c r="I50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K50" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L50">
         <v>2</v>
@@ -7637,13 +7637,13 @@
         <v>6.74900068688176</v>
       </c>
       <c r="I51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K51" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L51">
         <v>4</v>
@@ -7676,13 +7676,13 @@
         <v>6.6876295462661997</v>
       </c>
       <c r="I52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K52" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L52">
         <v>4</v>
@@ -7715,13 +7715,13 @@
         <v>6.6198565998477399</v>
       </c>
       <c r="I53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K53" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L53">
         <v>4</v>
@@ -7754,13 +7754,13 @@
         <v>5.3100310798423997</v>
       </c>
       <c r="I54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K54" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L54">
         <v>6</v>
@@ -7793,13 +7793,13 @@
         <v>5.3241722419956803</v>
       </c>
       <c r="I55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K55" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L55">
         <v>6</v>
@@ -7832,13 +7832,13 @@
         <v>5.2493803845831799</v>
       </c>
       <c r="I56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K56" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L56">
         <v>6</v>
@@ -7871,13 +7871,13 @@
         <v>5.60134721513875</v>
       </c>
       <c r="I57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K57" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L57">
         <v>10</v>
@@ -7909,13 +7909,13 @@
         <v>5.5504609911720504</v>
       </c>
       <c r="I58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K58" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L58">
         <v>10</v>
@@ -7947,13 +7947,13 @@
         <v>5.4854013112504498</v>
       </c>
       <c r="I59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K59" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L59">
         <v>10</v>
@@ -7976,111 +7976,111 @@
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="K2" s="2">
         <v>3.122231E-2</v>
@@ -8130,34 +8130,34 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="C3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="K3" s="2">
         <v>1.7479999999999999E-4</v>
@@ -8207,34 +8207,34 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -8284,34 +8284,34 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="C5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="K5" s="3">
         <v>1.2738000000000001E-5</v>
@@ -8361,34 +8361,34 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="C6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -8438,34 +8438,34 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K7" s="2">
         <v>4.7216699999999999E-3</v>
@@ -8515,34 +8515,34 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="C8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K8" s="2">
         <v>1.6347499999999999E-3</v>
@@ -8592,34 +8592,34 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="C9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -8669,34 +8669,34 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -8746,34 +8746,34 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K11" s="3">
         <v>1.4861000000000001E-5</v>
@@ -8823,34 +8823,34 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="K12" s="2">
         <v>3.6628309999999997E-2</v>
@@ -8900,34 +8900,34 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K13" s="2">
         <v>1.74869E-3</v>
@@ -8977,34 +8977,34 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K14" s="3">
         <v>2.1231000000000001E-6</v>
@@ -9054,34 +9054,34 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K15" s="2">
         <v>4.0266999999999999E-4</v>
@@ -9131,34 +9131,34 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K16" s="3">
         <v>3.0429999999999998E-5</v>
@@ -9208,34 +9208,34 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -9285,34 +9285,34 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -9362,34 +9362,34 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
@@ -9439,34 +9439,34 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
@@ -9516,34 +9516,34 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K21" s="2">
         <v>0</v>
@@ -9593,34 +9593,34 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
@@ -9670,34 +9670,34 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="C23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K23" s="2">
         <v>0</v>
@@ -9747,34 +9747,34 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K24" s="2">
         <v>0</v>
@@ -9824,34 +9824,34 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K25" s="2">
         <v>0</v>
@@ -9901,34 +9901,34 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
@@ -9978,34 +9978,34 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="I27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -10055,34 +10055,34 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="C28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="E28" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="I28" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K28" s="3">
         <v>5.6614999999999999E-6</v>
@@ -10132,34 +10132,34 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="C29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="E29" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="I29" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K29" s="2">
         <v>0</v>
@@ -10209,34 +10209,34 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="C30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="E30" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="I30" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K30" s="2">
         <v>0</v>
@@ -10286,34 +10286,34 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="I31" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K31" s="2">
         <v>0</v>
@@ -10363,34 +10363,34 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="I32" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K32" s="2">
         <v>0</v>
